--- a/Code/Results/Cases/Case_3_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_162/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.259765953456053</v>
+        <v>0.7256381965642049</v>
       </c>
       <c r="C2">
-        <v>0.3781468002867427</v>
+        <v>0.2458626454080388</v>
       </c>
       <c r="D2">
-        <v>0.1838094391087992</v>
+        <v>0.1433199007234407</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.857636466572913</v>
+        <v>2.685327605700309</v>
       </c>
       <c r="G2">
-        <v>0.0008246401334375101</v>
+        <v>0.002537995726890081</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7964591345289591</v>
+        <v>1.298515895208098</v>
       </c>
       <c r="J2">
-        <v>0.4286169381184521</v>
+        <v>0.3547417635487733</v>
       </c>
       <c r="K2">
-        <v>1.615454672792197</v>
+        <v>0.9630317485178921</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.305827941774218</v>
+        <v>2.444398860735767</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.094578821280294</v>
+        <v>0.6848036183984902</v>
       </c>
       <c r="C3">
-        <v>0.3301764433170433</v>
+        <v>0.2346601551900562</v>
       </c>
       <c r="D3">
-        <v>0.1599691458693968</v>
+        <v>0.1379964880744922</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.742479860382872</v>
+        <v>2.670932625896057</v>
       </c>
       <c r="G3">
-        <v>0.0008309879005363625</v>
+        <v>0.002541995567351906</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7698661634910238</v>
+        <v>1.298210087243255</v>
       </c>
       <c r="J3">
-        <v>0.3783043649984421</v>
+        <v>0.3439979413373067</v>
       </c>
       <c r="K3">
-        <v>1.405164059295487</v>
+        <v>0.9118436157986594</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.344845091070823</v>
+        <v>2.461147951525128</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9943925191870733</v>
+        <v>0.6601359475813808</v>
       </c>
       <c r="C4">
-        <v>0.3012560331470411</v>
+        <v>0.2279324937062484</v>
       </c>
       <c r="D4">
-        <v>0.1454959609646096</v>
+        <v>0.1348052093490253</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.675073647194154</v>
+        <v>2.663430844192817</v>
       </c>
       <c r="G4">
-        <v>0.0008349999403745252</v>
+        <v>0.002544581224212066</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7549589975406903</v>
+        <v>1.29860705604721</v>
       </c>
       <c r="J4">
-        <v>0.348076249160215</v>
+        <v>0.3376178320811789</v>
       </c>
       <c r="K4">
-        <v>1.277818140156285</v>
+        <v>0.8809674899084996</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.370500717187134</v>
+        <v>2.472144976378189</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9538390190397195</v>
+        <v>0.6501854823749511</v>
       </c>
       <c r="C5">
-        <v>0.2895895673820519</v>
+        <v>0.2252286787129094</v>
       </c>
       <c r="D5">
-        <v>0.1396344106882879</v>
+        <v>0.133524198356227</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.648375358772697</v>
+        <v>2.660709535674869</v>
       </c>
       <c r="G5">
-        <v>0.0008366645746476101</v>
+        <v>0.002545667629590738</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7492193475552256</v>
+        <v>1.298915685460784</v>
       </c>
       <c r="J5">
-        <v>0.3359078156594251</v>
+        <v>0.335072185135644</v>
       </c>
       <c r="K5">
-        <v>1.226316059087083</v>
+        <v>0.8685242568205922</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.381366188657708</v>
+        <v>2.476805450841823</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9471205711921584</v>
+        <v>0.6485393642033443</v>
       </c>
       <c r="C6">
-        <v>0.2876591093450998</v>
+        <v>0.2247819890743301</v>
       </c>
       <c r="D6">
-        <v>0.1386631611783429</v>
+        <v>0.1333126634302459</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.643986986143389</v>
+        <v>2.660277929566647</v>
       </c>
       <c r="G6">
-        <v>0.0008369428049515639</v>
+        <v>0.002545850006123088</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7482859046471049</v>
+        <v>1.298975798146003</v>
       </c>
       <c r="J6">
-        <v>0.3338958221109891</v>
+        <v>0.3346527568317867</v>
       </c>
       <c r="K6">
-        <v>1.217786384378059</v>
+        <v>0.8664664604011705</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.383194727252175</v>
+        <v>2.477590130454843</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9938445430321963</v>
+        <v>0.6600013399113891</v>
       </c>
       <c r="C7">
-        <v>0.301098233423744</v>
+        <v>0.2278958763953653</v>
       </c>
       <c r="D7">
-        <v>0.1454167691451858</v>
+        <v>0.1347878543640206</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.674710541686949</v>
+        <v>2.663392784887861</v>
       </c>
       <c r="G7">
-        <v>0.0008350222688007935</v>
+        <v>0.002544595743016366</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7548802618614303</v>
+        <v>1.298610623933925</v>
       </c>
       <c r="J7">
-        <v>0.3479115568615896</v>
+        <v>0.3375832809704207</v>
       </c>
       <c r="K7">
-        <v>1.277122044245374</v>
+        <v>0.8807991133694486</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.370645611346497</v>
+        <v>2.472207104280898</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.202528230180263</v>
+        <v>0.7114743691977594</v>
       </c>
       <c r="C8">
-        <v>0.3614862821058296</v>
+        <v>0.2419686597786495</v>
       </c>
       <c r="D8">
-        <v>0.175551926110586</v>
+        <v>0.1414683496229685</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.817208243049052</v>
+        <v>2.680086499664426</v>
       </c>
       <c r="G8">
-        <v>0.0008268056465789266</v>
+        <v>0.00253934800845867</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.78698109881406</v>
+        <v>1.298288981386669</v>
       </c>
       <c r="J8">
-        <v>0.4111205972278356</v>
+        <v>0.3509922187808741</v>
       </c>
       <c r="K8">
-        <v>1.542544959426181</v>
+        <v>0.94526706110085</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.318918070733865</v>
+        <v>2.450025843279249</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.623483359703329</v>
+        <v>0.8156326048110429</v>
       </c>
       <c r="C9">
-        <v>0.4848983706399679</v>
+        <v>0.2707691083324164</v>
       </c>
       <c r="D9">
-        <v>0.2362050302354959</v>
+        <v>0.1551823385378839</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.125761546931315</v>
+        <v>2.723453815390769</v>
       </c>
       <c r="G9">
-        <v>0.0008115570042266093</v>
+        <v>0.002530081804465107</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8622935213356158</v>
+        <v>1.302307281191361</v>
       </c>
       <c r="J9">
-        <v>0.5411897865203628</v>
+        <v>0.3790158735812668</v>
       </c>
       <c r="K9">
-        <v>2.07974982930719</v>
+        <v>1.076096596410309</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.231772394304485</v>
+        <v>2.412194509262704</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.942811626582511</v>
+        <v>0.8941392799015944</v>
       </c>
       <c r="C10">
-        <v>0.5797763986742268</v>
+        <v>0.2926761806544675</v>
       </c>
       <c r="D10">
-        <v>0.2821006679903064</v>
+        <v>0.1656334743577474</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.37468065589411</v>
+        <v>2.761837670276606</v>
       </c>
       <c r="G10">
-        <v>0.0008008135123582418</v>
+        <v>0.002523891772446916</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9268212347326852</v>
+        <v>1.30810894253905</v>
       </c>
       <c r="J10">
-        <v>0.6417807880175701</v>
+        <v>0.4006750154751018</v>
       </c>
       <c r="K10">
-        <v>2.488671986979881</v>
+        <v>1.174937477243617</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.177694415529302</v>
+        <v>2.387865558528446</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.09098755551156</v>
+        <v>0.930288971368725</v>
       </c>
       <c r="C11">
-        <v>0.6241442404577811</v>
+        <v>0.3028076644183102</v>
       </c>
       <c r="D11">
-        <v>0.3033649745296572</v>
+        <v>0.1704698985865463</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.493862247112176</v>
+        <v>2.780725087203351</v>
       </c>
       <c r="G11">
-        <v>0.0007960093360968245</v>
+        <v>0.002521208484050021</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9585866955333344</v>
+        <v>1.311370474564427</v>
       </c>
       <c r="J11">
-        <v>0.6889595044830372</v>
+        <v>0.4107643900057525</v>
       </c>
       <c r="K11">
-        <v>2.67880262924001</v>
+        <v>1.220501416417363</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.155562487714235</v>
+        <v>2.37755280986579</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.147583517191322</v>
+        <v>0.944040894748241</v>
       </c>
       <c r="C12">
-        <v>0.6411460834838465</v>
+        <v>0.3066682431483514</v>
       </c>
       <c r="D12">
-        <v>0.3114815810987039</v>
+        <v>0.172313146116025</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.539952510771045</v>
+        <v>2.788083016373463</v>
       </c>
       <c r="G12">
-        <v>0.000794200554437544</v>
+        <v>0.002520211348972834</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9710008321536279</v>
+        <v>1.312695273350386</v>
       </c>
       <c r="J12">
-        <v>0.7070593240020173</v>
+        <v>0.4146192324574827</v>
       </c>
       <c r="K12">
-        <v>2.75148489271433</v>
+        <v>1.237842088002481</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.147565936057589</v>
+        <v>2.373756395695736</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.135371866502339</v>
+        <v>0.9410763774382076</v>
       </c>
       <c r="C13">
-        <v>0.637475042507333</v>
+        <v>0.3058357282554027</v>
       </c>
       <c r="D13">
-        <v>0.3097305168006415</v>
+        <v>0.1719156452529376</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.529981737126391</v>
+        <v>2.786489198257811</v>
       </c>
       <c r="G13">
-        <v>0.0007945896683397083</v>
+        <v>0.002520425257930232</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9683094351609327</v>
+        <v>1.312405959754486</v>
       </c>
       <c r="J13">
-        <v>0.7031502694376286</v>
+        <v>0.4137874981607439</v>
       </c>
       <c r="K13">
-        <v>2.735799463504151</v>
+        <v>1.234103609224434</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.149270541227622</v>
+        <v>2.374569177870598</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.095633616019427</v>
+        <v>0.9314190911554761</v>
       </c>
       <c r="C14">
-        <v>0.6255388040738126</v>
+        <v>0.3031247945348525</v>
       </c>
       <c r="D14">
-        <v>0.3040313910761654</v>
+        <v>0.1706213072869787</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.497634272542243</v>
+        <v>2.781326303213078</v>
       </c>
       <c r="G14">
-        <v>0.0007958603261349139</v>
+        <v>0.002521126069647035</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9596000581437139</v>
+        <v>1.311477666914136</v>
       </c>
       <c r="J14">
-        <v>0.6904437080405899</v>
+        <v>0.4110808433132576</v>
       </c>
       <c r="K14">
-        <v>2.684767968578768</v>
+        <v>1.22192630713036</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.154896724390682</v>
+        <v>2.377238294410219</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.071358029083285</v>
+        <v>0.9255119066031625</v>
       </c>
       <c r="C15">
-        <v>0.6182545057796176</v>
+        <v>0.3014674003139248</v>
       </c>
       <c r="D15">
-        <v>0.3005491578007025</v>
+        <v>0.1698300240274051</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.477948641029386</v>
+        <v>2.778190682522805</v>
       </c>
       <c r="G15">
-        <v>0.0007966399554663218</v>
+        <v>0.002521557804183731</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9543166951262236</v>
+        <v>1.310920753011501</v>
       </c>
       <c r="J15">
-        <v>0.6826920313596077</v>
+        <v>0.409427400994204</v>
       </c>
       <c r="K15">
-        <v>2.653601696347437</v>
+        <v>1.21447864188687</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.158393901328807</v>
+        <v>2.378887382941059</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.933192082376962</v>
+        <v>0.8917856011935044</v>
       </c>
       <c r="C16">
-        <v>0.5769033999583542</v>
+        <v>0.29201741500259</v>
       </c>
       <c r="D16">
-        <v>0.2807194931064032</v>
+        <v>0.1653190544740539</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.367020138615331</v>
+        <v>2.760632083670956</v>
       </c>
       <c r="G16">
-        <v>0.0008011290243489566</v>
+        <v>0.002524069791367323</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.924797010600841</v>
+        <v>1.307908336782191</v>
       </c>
       <c r="J16">
-        <v>0.6387286142029325</v>
+        <v>0.400020427908629</v>
       </c>
       <c r="K16">
-        <v>2.476336926556996</v>
+        <v>1.171971872837901</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.179192899601532</v>
+        <v>2.388554730107501</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.849222564108089</v>
+        <v>0.8712074553343143</v>
       </c>
       <c r="C17">
-        <v>0.5518634340479593</v>
+        <v>0.2862627434625438</v>
       </c>
       <c r="D17">
-        <v>0.2686594822641268</v>
+        <v>0.1625727508076551</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.300562633538078</v>
+        <v>2.750226183854721</v>
       </c>
       <c r="G17">
-        <v>0.0008039031874758074</v>
+        <v>0.002525644703059904</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9073314152055616</v>
+        <v>1.306219877752582</v>
       </c>
       <c r="J17">
-        <v>0.6121424762520178</v>
+        <v>0.3943102777772509</v>
       </c>
       <c r="K17">
-        <v>2.368706481062048</v>
+        <v>1.146049356314535</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.192604559610842</v>
+        <v>2.394678811925488</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.801195251019863</v>
+        <v>0.8594125435280944</v>
       </c>
       <c r="C18">
-        <v>0.5375729632838215</v>
+        <v>0.2829684093292428</v>
       </c>
       <c r="D18">
-        <v>0.2617586547727626</v>
+        <v>0.1610008827427549</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.26289098613691</v>
+        <v>2.744375211828569</v>
       </c>
       <c r="G18">
-        <v>0.0008055067314766596</v>
+        <v>0.002526563036086876</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8975101178956209</v>
+        <v>1.305307282700205</v>
       </c>
       <c r="J18">
-        <v>0.5969824435859579</v>
+        <v>0.3910482007285765</v>
       </c>
       <c r="K18">
-        <v>2.307181030171506</v>
+        <v>1.131195940452784</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.200548995845793</v>
+        <v>2.398272231997254</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.784978446728587</v>
+        <v>0.855426045901055</v>
       </c>
       <c r="C19">
-        <v>0.5327528884223227</v>
+        <v>0.2818556790884372</v>
       </c>
       <c r="D19">
-        <v>0.2594280450060893</v>
+        <v>0.1604700038589613</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.250228001154824</v>
+        <v>2.742417209892537</v>
       </c>
       <c r="G19">
-        <v>0.0008060510669638823</v>
+        <v>0.002526876115394</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8942222371026816</v>
+        <v>1.305008344596352</v>
       </c>
       <c r="J19">
-        <v>0.5918712541454596</v>
+        <v>0.389947532828046</v>
       </c>
       <c r="K19">
-        <v>2.286412286159646</v>
+        <v>1.126176531788275</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.203277573060603</v>
+        <v>2.399501089700792</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.858132888275065</v>
+        <v>0.873393780836409</v>
       </c>
       <c r="C20">
-        <v>0.5545172176460369</v>
+        <v>0.2868737223250264</v>
       </c>
       <c r="D20">
-        <v>0.2699395282719621</v>
+        <v>0.1628642992756966</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.307579203943106</v>
+        <v>2.75132001370541</v>
       </c>
       <c r="G20">
-        <v>0.0008036070639544248</v>
+        <v>0.002525475759425825</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9091671618023227</v>
+        <v>1.306393554442593</v>
       </c>
       <c r="J20">
-        <v>0.6149587865826476</v>
+        <v>0.3949158287219063</v>
       </c>
       <c r="K20">
-        <v>2.380123878894921</v>
+        <v>1.148803000290485</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.191152816753558</v>
+        <v>2.394019541591348</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.10729197958932</v>
+        <v>0.9342539650092476</v>
       </c>
       <c r="C21">
-        <v>0.6290390888232196</v>
+        <v>0.3039204087095015</v>
       </c>
       <c r="D21">
-        <v>0.3057035437452953</v>
+        <v>0.1710011656219166</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.50710860525156</v>
+        <v>2.782837184197803</v>
       </c>
       <c r="G21">
-        <v>0.0007954868320237635</v>
+        <v>0.002520919710285674</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9621474308444675</v>
+        <v>1.311747891936115</v>
       </c>
       <c r="J21">
-        <v>0.6941693185517295</v>
+        <v>0.4118749232242038</v>
       </c>
       <c r="K21">
-        <v>2.699737804635731</v>
+        <v>1.225500723991615</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.1532334974017</v>
+        <v>2.376451355065441</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.272994438087949</v>
+        <v>0.9743957959803424</v>
       </c>
       <c r="C22">
-        <v>0.6789280995799913</v>
+        <v>0.3152014020503202</v>
       </c>
       <c r="D22">
-        <v>0.3294567857868174</v>
+        <v>0.1763878436119768</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.643157439399346</v>
+        <v>2.804634570297594</v>
       </c>
       <c r="G22">
-        <v>0.0007902399303827374</v>
+        <v>0.002518052583456733</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9990395101765017</v>
+        <v>1.315770373801129</v>
       </c>
       <c r="J22">
-        <v>0.7473198988798799</v>
+        <v>0.4231582010143455</v>
       </c>
       <c r="K22">
-        <v>2.912660860549721</v>
+        <v>1.276131976516439</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.130707214318036</v>
+        <v>2.365603835963171</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.184270248956466</v>
+        <v>0.9529378263209765</v>
       </c>
       <c r="C23">
-        <v>0.6521832478556178</v>
+        <v>0.3091676611651053</v>
       </c>
       <c r="D23">
-        <v>0.3167413825415508</v>
+        <v>0.1735065846770141</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.56999192114462</v>
+        <v>2.792890990988653</v>
       </c>
       <c r="G23">
-        <v>0.0007930353309451535</v>
+        <v>0.002519572743089306</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9791283290605222</v>
+        <v>1.313575555243204</v>
       </c>
       <c r="J23">
-        <v>0.7188151414554369</v>
+        <v>0.4171177784265865</v>
       </c>
       <c r="K23">
-        <v>2.798617093955642</v>
+        <v>1.249062857322343</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.142512911441429</v>
+        <v>2.371335225673221</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.854103763543122</v>
+        <v>0.8724052317573694</v>
       </c>
       <c r="C24">
-        <v>0.5533171159835604</v>
+        <v>0.2865974548637951</v>
       </c>
       <c r="D24">
-        <v>0.2693607184758378</v>
+        <v>0.162732468351777</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.304405351703934</v>
+        <v>2.75082508357761</v>
       </c>
       <c r="G24">
-        <v>0.0008037409143074727</v>
+        <v>0.002525552098537432</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9083365386656723</v>
+        <v>1.306314854166658</v>
       </c>
       <c r="J24">
-        <v>0.6136851465321911</v>
+        <v>0.3946419944827682</v>
       </c>
       <c r="K24">
-        <v>2.374960981571974</v>
+        <v>1.147557922793084</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.191808423352612</v>
+        <v>2.39431737154537</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.5080645976048</v>
+        <v>0.7871084251105742</v>
       </c>
       <c r="C25">
-        <v>0.4508643189164161</v>
+        <v>0.262847562194338</v>
       </c>
       <c r="D25">
-        <v>0.2195924268176128</v>
+        <v>0.1514065113894958</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.038735752016763</v>
+        <v>2.710579488138336</v>
       </c>
       <c r="G25">
-        <v>0.0008155962463742573</v>
+        <v>0.00253247957072507</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8404340061819369</v>
+        <v>1.300720951290337</v>
       </c>
       <c r="J25">
-        <v>0.5052209872451527</v>
+        <v>0.3712479836629825</v>
       </c>
       <c r="K25">
-        <v>1.932237090045277</v>
+        <v>1.040228428661578</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.253697292520954</v>
+        <v>2.42182112256183</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_162/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7256381965642049</v>
+        <v>1.259765953456139</v>
       </c>
       <c r="C2">
-        <v>0.2458626454080388</v>
+        <v>0.378146800286487</v>
       </c>
       <c r="D2">
-        <v>0.1433199007234407</v>
+        <v>0.1838094391087992</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.685327605700309</v>
+        <v>1.857636466572899</v>
       </c>
       <c r="G2">
-        <v>0.002537995726890081</v>
+        <v>0.0008246401334574819</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.298515895208098</v>
+        <v>0.7964591345289236</v>
       </c>
       <c r="J2">
-        <v>0.3547417635487733</v>
+        <v>0.4286169381183811</v>
       </c>
       <c r="K2">
-        <v>0.9630317485178921</v>
+        <v>1.615454672792225</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.444398860735767</v>
+        <v>1.305827941774211</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6848036183984902</v>
+        <v>1.094578821280209</v>
       </c>
       <c r="C3">
-        <v>0.2346601551900562</v>
+        <v>0.3301764433170433</v>
       </c>
       <c r="D3">
-        <v>0.1379964880744922</v>
+        <v>0.1599691458693968</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.670932625896057</v>
+        <v>1.742479860382858</v>
       </c>
       <c r="G3">
-        <v>0.002541995567351906</v>
+        <v>0.0008309879005052659</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.298210087243255</v>
+        <v>0.7698661634910309</v>
       </c>
       <c r="J3">
-        <v>0.3439979413373067</v>
+        <v>0.3783043649984847</v>
       </c>
       <c r="K3">
-        <v>0.9118436157986594</v>
+        <v>1.405164059295458</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.461147951525128</v>
+        <v>1.344845091070795</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6601359475813808</v>
+        <v>0.9943925191870164</v>
       </c>
       <c r="C4">
-        <v>0.2279324937062484</v>
+        <v>0.3012560331470127</v>
       </c>
       <c r="D4">
-        <v>0.1348052093490253</v>
+        <v>0.1454959609647375</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.663430844192817</v>
+        <v>1.675073647194154</v>
       </c>
       <c r="G4">
-        <v>0.002544581224212066</v>
+        <v>0.0008349999404331219</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.29860705604721</v>
+        <v>0.7549589975406903</v>
       </c>
       <c r="J4">
-        <v>0.3376178320811789</v>
+        <v>0.3480762491602576</v>
       </c>
       <c r="K4">
-        <v>0.8809674899084996</v>
+        <v>1.277818140156114</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.472144976378189</v>
+        <v>1.370500717187142</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6501854823749511</v>
+        <v>0.95383901903989</v>
       </c>
       <c r="C5">
-        <v>0.2252286787129094</v>
+        <v>0.2895895673822508</v>
       </c>
       <c r="D5">
-        <v>0.133524198356227</v>
+        <v>0.1396344106883873</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.660709535674869</v>
+        <v>1.648375358772725</v>
       </c>
       <c r="G5">
-        <v>0.002545667629590738</v>
+        <v>0.0008366645746477104</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.298915685460784</v>
+        <v>0.7492193475552398</v>
       </c>
       <c r="J5">
-        <v>0.335072185135644</v>
+        <v>0.3359078156593682</v>
       </c>
       <c r="K5">
-        <v>0.8685242568205922</v>
+        <v>1.226316059087026</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.476805450841823</v>
+        <v>1.381366188657786</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6485393642033443</v>
+        <v>0.9471205711921584</v>
       </c>
       <c r="C6">
-        <v>0.2247819890743301</v>
+        <v>0.2876591093452987</v>
       </c>
       <c r="D6">
-        <v>0.1333126634302459</v>
+        <v>0.1386631611782576</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.660277929566647</v>
+        <v>1.643986986143432</v>
       </c>
       <c r="G6">
-        <v>0.002545850006123088</v>
+        <v>0.0008369428049850456</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.298975798146003</v>
+        <v>0.7482859046471262</v>
       </c>
       <c r="J6">
-        <v>0.3346527568317867</v>
+        <v>0.3338958221109607</v>
       </c>
       <c r="K6">
-        <v>0.8664664604011705</v>
+        <v>1.217786384378059</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.477590130454843</v>
+        <v>1.383194727252231</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6600013399113891</v>
+        <v>0.9938445430321678</v>
       </c>
       <c r="C7">
-        <v>0.2278958763953653</v>
+        <v>0.3010982334237724</v>
       </c>
       <c r="D7">
-        <v>0.1347878543640206</v>
+        <v>0.1454167691451289</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.663392784887861</v>
+        <v>1.674710541686906</v>
       </c>
       <c r="G7">
-        <v>0.002544595743016366</v>
+        <v>0.0008350222688283511</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.298610623933925</v>
+        <v>0.7548802618614374</v>
       </c>
       <c r="J7">
-        <v>0.3375832809704207</v>
+        <v>0.347911556861618</v>
       </c>
       <c r="K7">
-        <v>0.8807991133694486</v>
+        <v>1.277122044245402</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.472207104280898</v>
+        <v>1.370645611346511</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7114743691977594</v>
+        <v>1.202528230180405</v>
       </c>
       <c r="C8">
-        <v>0.2419686597786495</v>
+        <v>0.3614862821057443</v>
       </c>
       <c r="D8">
-        <v>0.1414683496229685</v>
+        <v>0.1755519261108134</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.680086499664426</v>
+        <v>1.817208243049038</v>
       </c>
       <c r="G8">
-        <v>0.00253934800845867</v>
+        <v>0.0008268056465580605</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.298288981386669</v>
+        <v>0.78698109881406</v>
       </c>
       <c r="J8">
-        <v>0.3509922187808741</v>
+        <v>0.4111205972278213</v>
       </c>
       <c r="K8">
-        <v>0.94526706110085</v>
+        <v>1.542544959426152</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.450025843279249</v>
+        <v>1.318918070733829</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8156326048110429</v>
+        <v>1.623483359703442</v>
       </c>
       <c r="C9">
-        <v>0.2707691083324164</v>
+        <v>0.4848983706399679</v>
       </c>
       <c r="D9">
-        <v>0.1551823385378839</v>
+        <v>0.2362050302354959</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.723453815390769</v>
+        <v>2.125761546931315</v>
       </c>
       <c r="G9">
-        <v>0.002530081804465107</v>
+        <v>0.0008115570041963002</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.302307281191361</v>
+        <v>0.8622935213356371</v>
       </c>
       <c r="J9">
-        <v>0.3790158735812668</v>
+        <v>0.5411897865203201</v>
       </c>
       <c r="K9">
-        <v>1.076096596410309</v>
+        <v>2.079749829307218</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.412194509262704</v>
+        <v>1.2317723943045</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8941392799015944</v>
+        <v>1.942811626582539</v>
       </c>
       <c r="C10">
-        <v>0.2926761806544675</v>
+        <v>0.5797763986740563</v>
       </c>
       <c r="D10">
-        <v>0.1656334743577474</v>
+        <v>0.2821006679901927</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.761837670276606</v>
+        <v>2.37468065589411</v>
       </c>
       <c r="G10">
-        <v>0.002523891772446916</v>
+        <v>0.0008008135124315571</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.30810894253905</v>
+        <v>0.9268212347326852</v>
       </c>
       <c r="J10">
-        <v>0.4006750154751018</v>
+        <v>0.6417807880175417</v>
       </c>
       <c r="K10">
-        <v>1.174937477243617</v>
+        <v>2.488671986979881</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.387865558528446</v>
+        <v>1.17769441552926</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.930288971368725</v>
+        <v>2.09098755551156</v>
       </c>
       <c r="C11">
-        <v>0.3028076644183102</v>
+        <v>0.6241442404578379</v>
       </c>
       <c r="D11">
-        <v>0.1704698985865463</v>
+        <v>0.3033649745293445</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.780725087203351</v>
+        <v>2.493862247112204</v>
       </c>
       <c r="G11">
-        <v>0.002521208484050021</v>
+        <v>0.0007960093361452092</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.311370474564427</v>
+        <v>0.9585866955333628</v>
       </c>
       <c r="J11">
-        <v>0.4107643900057525</v>
+        <v>0.688959504483023</v>
       </c>
       <c r="K11">
-        <v>1.220501416417363</v>
+        <v>2.678802629240039</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.37755280986579</v>
+        <v>1.155562487714263</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.944040894748241</v>
+        <v>2.147583517191265</v>
       </c>
       <c r="C12">
-        <v>0.3066682431483514</v>
+        <v>0.6411460834837328</v>
       </c>
       <c r="D12">
-        <v>0.172313146116025</v>
+        <v>0.3114815810988034</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.788083016373463</v>
+        <v>2.539952510771059</v>
       </c>
       <c r="G12">
-        <v>0.002520211348972834</v>
+        <v>0.0007942005545325558</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.312695273350386</v>
+        <v>0.9710008321536563</v>
       </c>
       <c r="J12">
-        <v>0.4146192324574827</v>
+        <v>0.7070593240019178</v>
       </c>
       <c r="K12">
-        <v>1.237842088002481</v>
+        <v>2.751484892714416</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.373756395695736</v>
+        <v>1.147565936057632</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9410763774382076</v>
+        <v>2.135371866502453</v>
       </c>
       <c r="C13">
-        <v>0.3058357282554027</v>
+        <v>0.6374750425072762</v>
       </c>
       <c r="D13">
-        <v>0.1719156452529376</v>
+        <v>0.309730516800883</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.786489198257811</v>
+        <v>2.52998173712642</v>
       </c>
       <c r="G13">
-        <v>0.002520425257930232</v>
+        <v>0.000794589668367621</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.312405959754486</v>
+        <v>0.9683094351609398</v>
       </c>
       <c r="J13">
-        <v>0.4137874981607439</v>
+        <v>0.7031502694375433</v>
       </c>
       <c r="K13">
-        <v>1.234103609224434</v>
+        <v>2.735799463504179</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.374569177870598</v>
+        <v>1.149270541227608</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9314190911554761</v>
+        <v>2.095633616019541</v>
       </c>
       <c r="C14">
-        <v>0.3031247945348525</v>
+        <v>0.6255388040740399</v>
       </c>
       <c r="D14">
-        <v>0.1706213072869787</v>
+        <v>0.3040313910762791</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.781326303213078</v>
+        <v>2.497634272542257</v>
       </c>
       <c r="G14">
-        <v>0.002521126069647035</v>
+        <v>0.0007958603260279994</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.311477666914136</v>
+        <v>0.959600058143721</v>
       </c>
       <c r="J14">
-        <v>0.4110808433132576</v>
+        <v>0.6904437080405046</v>
       </c>
       <c r="K14">
-        <v>1.22192630713036</v>
+        <v>2.68476796857874</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.377238294410219</v>
+        <v>1.154896724390568</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9255119066031625</v>
+        <v>2.071358029083456</v>
       </c>
       <c r="C15">
-        <v>0.3014674003139248</v>
+        <v>0.6182545057796176</v>
       </c>
       <c r="D15">
-        <v>0.1698300240274051</v>
+        <v>0.3005491578006882</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.778190682522805</v>
+        <v>2.477948641029414</v>
       </c>
       <c r="G15">
-        <v>0.002521557804183731</v>
+        <v>0.0007966399554855119</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.310920753011501</v>
+        <v>0.9543166951262165</v>
       </c>
       <c r="J15">
-        <v>0.409427400994204</v>
+        <v>0.682692031359565</v>
       </c>
       <c r="K15">
-        <v>1.21447864188687</v>
+        <v>2.653601696347437</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.378887382941059</v>
+        <v>1.158393901328907</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8917856011935044</v>
+        <v>1.93319208237682</v>
       </c>
       <c r="C16">
-        <v>0.29201741500259</v>
+        <v>0.5769033999581836</v>
       </c>
       <c r="D16">
-        <v>0.1653190544740539</v>
+        <v>0.2807194931064032</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.760632083670956</v>
+        <v>2.367020138615374</v>
       </c>
       <c r="G16">
-        <v>0.002524069791367323</v>
+        <v>0.0008011290243292875</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.307908336782191</v>
+        <v>0.9247970106008552</v>
       </c>
       <c r="J16">
-        <v>0.400020427908629</v>
+        <v>0.6387286142028472</v>
       </c>
       <c r="K16">
-        <v>1.171971872837901</v>
+        <v>2.476336926556968</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.388554730107501</v>
+        <v>1.179192899601475</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8712074553343143</v>
+        <v>1.849222564107976</v>
       </c>
       <c r="C17">
-        <v>0.2862627434625438</v>
+        <v>0.5518634340482151</v>
       </c>
       <c r="D17">
-        <v>0.1625727508076551</v>
+        <v>0.2686594822641268</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.750226183854721</v>
+        <v>2.300562633538092</v>
       </c>
       <c r="G17">
-        <v>0.002525644703059904</v>
+        <v>0.0008039031875789091</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.306219877752582</v>
+        <v>0.9073314152055474</v>
       </c>
       <c r="J17">
-        <v>0.3943102777772509</v>
+        <v>0.6121424762519183</v>
       </c>
       <c r="K17">
-        <v>1.146049356314535</v>
+        <v>2.36870648106202</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.394678811925488</v>
+        <v>1.192604559610857</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8594125435280944</v>
+        <v>1.801195251020005</v>
       </c>
       <c r="C18">
-        <v>0.2829684093292428</v>
+        <v>0.5375729632837647</v>
       </c>
       <c r="D18">
-        <v>0.1610008827427549</v>
+        <v>0.2617586547728621</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.744375211828569</v>
+        <v>2.262890986136895</v>
       </c>
       <c r="G18">
-        <v>0.002526563036086876</v>
+        <v>0.000805506731447851</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.305307282700205</v>
+        <v>0.8975101178956209</v>
       </c>
       <c r="J18">
-        <v>0.3910482007285765</v>
+        <v>0.5969824435860289</v>
       </c>
       <c r="K18">
-        <v>1.131195940452784</v>
+        <v>2.307181030171506</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.398272231997254</v>
+        <v>1.200548995845793</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.855426045901055</v>
+        <v>1.784978446728388</v>
       </c>
       <c r="C19">
-        <v>0.2818556790884372</v>
+        <v>0.5327528884219817</v>
       </c>
       <c r="D19">
-        <v>0.1604700038589613</v>
+        <v>0.2594280450060751</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.742417209892537</v>
+        <v>2.250228001154809</v>
       </c>
       <c r="G19">
-        <v>0.002526876115394</v>
+        <v>0.0008060510670083667</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.305008344596352</v>
+        <v>0.8942222371026816</v>
       </c>
       <c r="J19">
-        <v>0.389947532828046</v>
+        <v>0.5918712541454596</v>
       </c>
       <c r="K19">
-        <v>1.126176531788275</v>
+        <v>2.286412286159674</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.399501089700792</v>
+        <v>1.203277573060646</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.873393780836409</v>
+        <v>1.858132888275208</v>
       </c>
       <c r="C20">
-        <v>0.2868737223250264</v>
+        <v>0.5545172176460369</v>
       </c>
       <c r="D20">
-        <v>0.1628642992756966</v>
+        <v>0.2699395282718058</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.75132001370541</v>
+        <v>2.307579203943121</v>
       </c>
       <c r="G20">
-        <v>0.002525475759425825</v>
+        <v>0.0008036070639236807</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.306393554442593</v>
+        <v>0.9091671618023156</v>
       </c>
       <c r="J20">
-        <v>0.3949158287219063</v>
+        <v>0.6149587865828181</v>
       </c>
       <c r="K20">
-        <v>1.148803000290485</v>
+        <v>2.380123878894977</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.394019541591348</v>
+        <v>1.191152816753558</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9342539650092476</v>
+        <v>2.107291979589263</v>
       </c>
       <c r="C21">
-        <v>0.3039204087095015</v>
+        <v>0.6290390888231059</v>
       </c>
       <c r="D21">
-        <v>0.1710011656219166</v>
+        <v>0.3057035437451816</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.782837184197803</v>
+        <v>2.50710860525156</v>
       </c>
       <c r="G21">
-        <v>0.002520919710285674</v>
+        <v>0.0007954868319467037</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.311747891936115</v>
+        <v>0.9621474308444817</v>
       </c>
       <c r="J21">
-        <v>0.4118749232242038</v>
+        <v>0.6941693185518147</v>
       </c>
       <c r="K21">
-        <v>1.225500723991615</v>
+        <v>2.69973780463576</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.376451355065441</v>
+        <v>1.153233497401644</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9743957959803424</v>
+        <v>2.272994438087892</v>
       </c>
       <c r="C22">
-        <v>0.3152014020503202</v>
+        <v>0.6789280995797355</v>
       </c>
       <c r="D22">
-        <v>0.1763878436119768</v>
+        <v>0.3294567857866042</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.804634570297594</v>
+        <v>2.643157439399374</v>
       </c>
       <c r="G22">
-        <v>0.002518052583456733</v>
+        <v>0.0007902399304379833</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.315770373801129</v>
+        <v>0.9990395101765159</v>
       </c>
       <c r="J22">
-        <v>0.4231582010143455</v>
+        <v>0.7473198988799652</v>
       </c>
       <c r="K22">
-        <v>1.276131976516439</v>
+        <v>2.912660860549778</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.365603835963171</v>
+        <v>1.130707214318022</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9529378263209765</v>
+        <v>2.184270248956409</v>
       </c>
       <c r="C23">
-        <v>0.3091676611651053</v>
+        <v>0.6521832478554188</v>
       </c>
       <c r="D23">
-        <v>0.1735065846770141</v>
+        <v>0.3167413825415366</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.792890990988653</v>
+        <v>2.569991921144606</v>
       </c>
       <c r="G23">
-        <v>0.002519572743089306</v>
+        <v>0.0007930353309467961</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.313575555243204</v>
+        <v>0.9791283290605151</v>
       </c>
       <c r="J23">
-        <v>0.4171177784265865</v>
+        <v>0.7188151414554511</v>
       </c>
       <c r="K23">
-        <v>1.249062857322343</v>
+        <v>2.79861709395567</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.371335225673221</v>
+        <v>1.142512911441443</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8724052317573694</v>
+        <v>1.854103763542895</v>
       </c>
       <c r="C24">
-        <v>0.2865974548637951</v>
+        <v>0.5533171159835035</v>
       </c>
       <c r="D24">
-        <v>0.162732468351777</v>
+        <v>0.2693607184757383</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.75082508357761</v>
+        <v>2.304405351703977</v>
       </c>
       <c r="G24">
-        <v>0.002525552098537432</v>
+        <v>0.0008037409143815122</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.306314854166658</v>
+        <v>0.9083365386656794</v>
       </c>
       <c r="J24">
-        <v>0.3946419944827682</v>
+        <v>0.6136851465321911</v>
       </c>
       <c r="K24">
-        <v>1.147557922793084</v>
+        <v>2.374960981571917</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.39431737154537</v>
+        <v>1.191808423352654</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7871084251105742</v>
+        <v>1.508064597604857</v>
       </c>
       <c r="C25">
-        <v>0.262847562194338</v>
+        <v>0.4508643189161319</v>
       </c>
       <c r="D25">
-        <v>0.1514065113894958</v>
+        <v>0.2195924268175986</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.710579488138336</v>
+        <v>2.038735752016777</v>
       </c>
       <c r="G25">
-        <v>0.00253247957072507</v>
+        <v>0.0008155962463725665</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.300720951290337</v>
+        <v>0.8404340061819511</v>
       </c>
       <c r="J25">
-        <v>0.3712479836629825</v>
+        <v>0.5052209872451243</v>
       </c>
       <c r="K25">
-        <v>1.040228428661578</v>
+        <v>1.932237090045277</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.42182112256183</v>
+        <v>1.253697292520954</v>
       </c>
       <c r="O25">
         <v>0</v>
